--- a/individual_case_outputs/avey/411.xlsx
+++ b/individual_case_outputs/avey/411.xlsx
@@ -741,7 +741,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>lymphoma</t>
+          <t>acute thyroiditis</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -783,11 +783,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>lymphoma</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>lymphoma</t>
@@ -830,7 +826,7 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>acute thyroiditis</t>
+          <t>de quervain thyroditis</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -897,14 +893,10 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>de quervain thyroditis</t>
-        </is>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>lymphoma</t>
+          <t>viral pneumonia</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -953,7 +945,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>viral pneumonia</t>
+          <t>influenza</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -992,11 +984,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>influenza</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>pneumonia</t>
